--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.53867990953598</v>
+        <v>3.722831</v>
       </c>
       <c r="N2">
-        <v>2.53867990953598</v>
+        <v>11.168493</v>
       </c>
       <c r="O2">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="P2">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="Q2">
-        <v>64.65954803733584</v>
+        <v>151.7179886108647</v>
       </c>
       <c r="R2">
-        <v>64.65954803733584</v>
+        <v>1365.461897497782</v>
       </c>
       <c r="S2">
-        <v>0.00284639305275647</v>
+        <v>0.004344502168738791</v>
       </c>
       <c r="T2">
-        <v>0.00284639305275647</v>
+        <v>0.004344502168738791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60388323955622</v>
+        <v>1.746044</v>
       </c>
       <c r="N3">
-        <v>1.60388323955622</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O3">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="P3">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="Q3">
-        <v>40.850508559513</v>
+        <v>71.15721441721865</v>
       </c>
       <c r="R3">
-        <v>40.850508559513</v>
+        <v>640.4149297549679</v>
       </c>
       <c r="S3">
-        <v>0.001798289769953632</v>
+        <v>0.002037613833320222</v>
       </c>
       <c r="T3">
-        <v>0.001798289769953632</v>
+        <v>0.002037613833320222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.96793098968994</v>
+        <v>11.46242466666667</v>
       </c>
       <c r="N4">
-        <v>6.96793098968994</v>
+        <v>34.387274</v>
       </c>
       <c r="O4">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="P4">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="Q4">
-        <v>177.4714751774468</v>
+        <v>467.1326780695195</v>
       </c>
       <c r="R4">
-        <v>177.4714751774468</v>
+        <v>4204.194102625676</v>
       </c>
       <c r="S4">
-        <v>0.007812513222576816</v>
+        <v>0.0133765214760859</v>
       </c>
       <c r="T4">
-        <v>0.007812513222576816</v>
+        <v>0.0133765214760859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27822987333698</v>
+        <v>1.291125333333333</v>
       </c>
       <c r="N5">
-        <v>1.27822987333698</v>
+        <v>3.873376</v>
       </c>
       <c r="O5">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="P5">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="Q5">
-        <v>32.55619804109013</v>
+        <v>52.61773596971377</v>
       </c>
       <c r="R5">
-        <v>32.55619804109013</v>
+        <v>473.559623727424</v>
       </c>
       <c r="S5">
-        <v>0.001433163991106377</v>
+        <v>0.001506728833723653</v>
       </c>
       <c r="T5">
-        <v>0.001433163991106377</v>
+        <v>0.001506728833723653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.53867990953598</v>
+        <v>3.722831</v>
       </c>
       <c r="N6">
-        <v>2.53867990953598</v>
+        <v>11.168493</v>
       </c>
       <c r="O6">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="P6">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="Q6">
-        <v>4283.559343747172</v>
+        <v>6288.938598827172</v>
       </c>
       <c r="R6">
-        <v>4283.559343747172</v>
+        <v>56600.44738944455</v>
       </c>
       <c r="S6">
-        <v>0.1885675654595001</v>
+        <v>0.1800861429276368</v>
       </c>
       <c r="T6">
-        <v>0.1885675654595001</v>
+        <v>0.1800861429276368</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.60388323955622</v>
+        <v>1.746044</v>
       </c>
       <c r="N7">
-        <v>1.60388323955622</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O7">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="P7">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="Q7">
-        <v>2706.260451061074</v>
+        <v>2949.573458169493</v>
       </c>
       <c r="R7">
-        <v>2706.260451061074</v>
+        <v>26546.16112352543</v>
       </c>
       <c r="S7">
-        <v>0.1191329228345658</v>
+        <v>0.08446215510237845</v>
       </c>
       <c r="T7">
-        <v>0.1191329228345658</v>
+        <v>0.08446215510237845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.96793098968994</v>
+        <v>11.46242466666667</v>
       </c>
       <c r="N8">
-        <v>6.96793098968994</v>
+        <v>34.387274</v>
       </c>
       <c r="O8">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="P8">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="Q8">
-        <v>11757.11273617293</v>
+        <v>19363.35141787223</v>
       </c>
       <c r="R8">
-        <v>11757.11273617293</v>
+        <v>174270.1627608501</v>
       </c>
       <c r="S8">
-        <v>0.5175626033357613</v>
+        <v>0.5544769146970686</v>
       </c>
       <c r="T8">
-        <v>0.5175626033357613</v>
+        <v>0.5544769146970686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.27822987333698</v>
+        <v>1.291125333333333</v>
       </c>
       <c r="N9">
-        <v>1.27822987333698</v>
+        <v>3.873376</v>
       </c>
       <c r="O9">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="P9">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="Q9">
-        <v>2156.779788118374</v>
+        <v>2181.084219166435</v>
       </c>
       <c r="R9">
-        <v>2156.779788118374</v>
+        <v>19629.75797249792</v>
       </c>
       <c r="S9">
-        <v>0.09494410634730842</v>
+        <v>0.06245617416319983</v>
       </c>
       <c r="T9">
-        <v>0.09494410634730842</v>
+        <v>0.06245617416319983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.53867990953598</v>
+        <v>3.722831</v>
       </c>
       <c r="N10">
-        <v>2.53867990953598</v>
+        <v>11.168493</v>
       </c>
       <c r="O10">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="P10">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="Q10">
-        <v>92.36160733786021</v>
+        <v>375.8771297340056</v>
       </c>
       <c r="R10">
-        <v>92.36160733786021</v>
+        <v>3382.894167606051</v>
       </c>
       <c r="S10">
-        <v>0.004065871869628652</v>
+        <v>0.0107633842253018</v>
       </c>
       <c r="T10">
-        <v>0.004065871869628652</v>
+        <v>0.0107633842253018</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.60388323955622</v>
+        <v>1.746044</v>
       </c>
       <c r="N11">
-        <v>1.60388323955622</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O11">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="P11">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="Q11">
-        <v>58.35207244175312</v>
+        <v>176.2900349517026</v>
       </c>
       <c r="R11">
-        <v>58.35207244175312</v>
+        <v>1586.610314565324</v>
       </c>
       <c r="S11">
-        <v>0.002568730197684689</v>
+        <v>0.005048132038838954</v>
       </c>
       <c r="T11">
-        <v>0.002568730197684689</v>
+        <v>0.005048132038838954</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.96793098968994</v>
+        <v>11.46242466666667</v>
       </c>
       <c r="N12">
-        <v>6.96793098968994</v>
+        <v>34.387274</v>
       </c>
       <c r="O12">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="P12">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="Q12">
-        <v>253.5054945720516</v>
+        <v>1157.308318185524</v>
       </c>
       <c r="R12">
-        <v>253.5054945720516</v>
+        <v>10415.77486366972</v>
       </c>
       <c r="S12">
-        <v>0.01115962453323718</v>
+        <v>0.0331399627973739</v>
       </c>
       <c r="T12">
-        <v>0.01115962453323718</v>
+        <v>0.0331399627973739</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.27822987333698</v>
+        <v>1.291125333333333</v>
       </c>
       <c r="N13">
-        <v>1.27822987333698</v>
+        <v>3.873376</v>
       </c>
       <c r="O13">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="P13">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="Q13">
-        <v>46.5042344271956</v>
+        <v>130.3589887427591</v>
       </c>
       <c r="R13">
-        <v>46.5042344271956</v>
+        <v>1173.230898684832</v>
       </c>
       <c r="S13">
-        <v>0.002047173755697996</v>
+        <v>0.003732879103479995</v>
       </c>
       <c r="T13">
-        <v>0.002047173755697996</v>
+        <v>0.003732879103479995</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.53867990953598</v>
+        <v>3.722831</v>
       </c>
       <c r="N14">
-        <v>2.53867990953598</v>
+        <v>11.168493</v>
       </c>
       <c r="O14">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="P14">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="Q14">
-        <v>214.413890362516</v>
+        <v>317.9772235677007</v>
       </c>
       <c r="R14">
-        <v>214.413890362516</v>
+        <v>2861.795012109306</v>
       </c>
       <c r="S14">
-        <v>0.009438763902122373</v>
+        <v>0.009105398443836793</v>
       </c>
       <c r="T14">
-        <v>0.009438763902122373</v>
+        <v>0.009105398443836793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.60388323955622</v>
+        <v>1.746044</v>
       </c>
       <c r="N15">
-        <v>1.60388323955622</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O15">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="P15">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="Q15">
-        <v>135.4620737292325</v>
+        <v>149.1344150048827</v>
       </c>
       <c r="R15">
-        <v>135.4620737292325</v>
+        <v>1342.209735043944</v>
       </c>
       <c r="S15">
-        <v>0.005963207558336641</v>
+        <v>0.004270520558271532</v>
       </c>
       <c r="T15">
-        <v>0.005963207558336641</v>
+        <v>0.004270520558271532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.96793098968994</v>
+        <v>11.46242466666667</v>
       </c>
       <c r="N16">
-        <v>6.96793098968994</v>
+        <v>34.387274</v>
       </c>
       <c r="O16">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="P16">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="Q16">
-        <v>588.5031766568923</v>
+        <v>979.0371818813676</v>
       </c>
       <c r="R16">
-        <v>588.5031766568923</v>
+        <v>8811.334636932308</v>
       </c>
       <c r="S16">
-        <v>0.02590663566955411</v>
+        <v>0.0280351011696376</v>
       </c>
       <c r="T16">
-        <v>0.02590663566955411</v>
+        <v>0.0280351011696376</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.27822987333698</v>
+        <v>1.291125333333333</v>
       </c>
       <c r="N17">
-        <v>1.27822987333698</v>
+        <v>3.873376</v>
       </c>
       <c r="O17">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="P17">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="Q17">
-        <v>107.9577771464156</v>
+        <v>110.2785618716658</v>
       </c>
       <c r="R17">
-        <v>107.9577771464156</v>
+        <v>992.507056844992</v>
       </c>
       <c r="S17">
-        <v>0.004752434500209506</v>
+        <v>0.003157868461107043</v>
       </c>
       <c r="T17">
-        <v>0.004752434500209506</v>
+        <v>0.003157868461107043</v>
       </c>
     </row>
   </sheetData>
